--- a/Snail_Density_Seasons.xlsx
+++ b/Snail_Density_Seasons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaaguiar/Desktop/LUMCON REU/Project/LUMCONREU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39CA79-4B2C-0549-B078-FF5F5C3F38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44019136-BC8A-1344-A2E2-CCAD9825BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:N466"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="Q255" sqref="Q255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="L258" s="3">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="M258" s="3">
         <v>720</v>
